--- a/ZINFOODS/DADOS/AnáliseDeVendaPorValorVarejo_Zaffari.xlsx
+++ b/ZINFOODS/DADOS/AnáliseDeVendaPorValorVarejo_Zaffari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael.M  S.I T.I\CiencasDeDados\ZINFOODS\DADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB8D048-7488-4882-9D9E-D211BBEEBF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E44812-5506-4EFD-9A88-2CFC4F326020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Rafael.M  S.I T.I" refreshedDate="45239.60743009259" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Rafael.M  S.I T.I" refreshedDate="45243.584124884263" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Clientes].[Clientes].[Clientes]" caption="Clientes" numFmtId="0" hierarchy="42" level="1">
